--- a/biology/Botanique/Cystoseira_sauvageauana/Cystoseira_sauvageauana.xlsx
+++ b/biology/Botanique/Cystoseira_sauvageauana/Cystoseira_sauvageauana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Treptacantha sauvageauana (basionyme : Cystoseira sauvageauana) est une espèce d’algues brunes de la famille des Sargassaceae.
 </t>
@@ -511,16 +523,18 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Treptacantha sauvageauana a pour synonymes selon AlgaeBase                                           (30 août 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Treptacantha sauvageauana a pour synonymes selon AlgaeBase                                           (30 août 2020) :
 synonyme homotypique :
 Cystoseira sauvageauana Hamel, 1939 (basionyme) ;
 synonymes hétérotypiques :
 Cystoseira selaginoides var. polyoedematis Sauv., 1912 ;
 Cystoseira sauvageauana var. polyoedematis (Sauv.) Hamel, 1939 ;
 Cystoseira sicula Schiffn. ex Gerloff &amp; Nizam. 1976 ;
-et selon World Register of Marine Species                               (30 août 2020)[2] :
+et selon World Register of Marine Species                               (30 août 2020) :
 Cystoseira sauvageauana f. polyoedematis (Sauvageau) Hamel, 1939 ;
 Cystoseira selaginoides var. polyoedematis Sauvageau, 1912 ;
 Cystoseira sicula Schiffner ex Gerloff &amp; Nizamuddin, 1976.</t>
@@ -551,9 +565,11 @@
           <t>Sous-espèces, formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Worms[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Worms :
 Forme Cystoseira sauvageauana f. polyoedematis (Sauvageau) Hamel, 1939 = Cystoseira sauvageauana Hamel, 1939
 Variété Cystoseira sauvageauana var. gibraltarica (Sauvageau) Hamel, 1939 = Cystoseira mauritanica Sauvageau, 1911</t>
         </is>
@@ -583,9 +599,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cystoseira sauvageauana se développe le long des côtes de la mer Méditerranée ainsi qu'aux îles du Cap-Vert[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cystoseira sauvageauana se développe le long des côtes de la mer Méditerranée ainsi qu'aux îles du Cap-Vert.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe en surface dans des milieux abrités, ainsi que plus profondément dans les herbiers de posidonie[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe en surface dans des milieux abrités, ainsi que plus profondément dans les herbiers de posidonie.
 </t>
         </is>
       </c>
